--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -696,7 +696,7 @@
         <v>15.67</v>
       </c>
       <c r="H2">
-        <v>29.88642857142857</v>
+        <v>29.89</v>
       </c>
       <c r="I2">
         <v>16.23</v>
@@ -735,19 +735,19 @@
         <v>21.33</v>
       </c>
       <c r="U2">
-        <v>44.82833333333333</v>
+        <v>44.83</v>
       </c>
       <c r="V2">
-        <v>54.66545454545455</v>
+        <v>54.67</v>
       </c>
       <c r="W2">
-        <v>35.57285714285715</v>
+        <v>35.57</v>
       </c>
       <c r="X2">
         <v>69.76000000000001</v>
       </c>
       <c r="Y2">
-        <v>198.3961538461539</v>
+        <v>198.4</v>
       </c>
       <c r="Z2">
         <v>47.29</v>
@@ -759,7 +759,7 @@
         <v>10.27</v>
       </c>
       <c r="AC2">
-        <v>87.88571428571429</v>
+        <v>87.89</v>
       </c>
       <c r="AD2">
         <v>97.17</v>
@@ -780,7 +780,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ2">
-        <v>941.8870588235294</v>
+        <v>941.89</v>
       </c>
       <c r="AK2">
         <v>2.26</v>
@@ -789,7 +789,7 @@
         <v>21.33</v>
       </c>
       <c r="AM2">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -815,7 +815,7 @@
         <v>56.66</v>
       </c>
       <c r="H3">
-        <v>29.88642857142857</v>
+        <v>29.89</v>
       </c>
       <c r="I3">
         <v>57.45</v>
@@ -854,19 +854,19 @@
         <v>33.29</v>
       </c>
       <c r="U3">
-        <v>44.82833333333333</v>
+        <v>44.83</v>
       </c>
       <c r="V3">
-        <v>54.66545454545455</v>
+        <v>54.67</v>
       </c>
       <c r="W3">
-        <v>35.57285714285715</v>
+        <v>35.57</v>
       </c>
       <c r="X3">
         <v>114.14</v>
       </c>
       <c r="Y3">
-        <v>198.3961538461539</v>
+        <v>198.4</v>
       </c>
       <c r="Z3">
         <v>70.94</v>
@@ -878,7 +878,7 @@
         <v>42.98</v>
       </c>
       <c r="AC3">
-        <v>87.88571428571429</v>
+        <v>87.89</v>
       </c>
       <c r="AD3">
         <v>148.65</v>
@@ -899,7 +899,7 @@
         <v>0.18</v>
       </c>
       <c r="AJ3">
-        <v>941.8870588235294</v>
+        <v>941.89</v>
       </c>
       <c r="AK3">
         <v>2.26</v>
@@ -908,7 +908,7 @@
         <v>33.29</v>
       </c>
       <c r="AM3">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -934,7 +934,7 @@
         <v>73.59999999999999</v>
       </c>
       <c r="H4">
-        <v>29.88642857142857</v>
+        <v>29.89</v>
       </c>
       <c r="I4">
         <v>76.59</v>
@@ -976,16 +976,16 @@
         <v>1.17</v>
       </c>
       <c r="V4">
-        <v>54.66545454545455</v>
+        <v>54.67</v>
       </c>
       <c r="W4">
-        <v>35.57285714285715</v>
+        <v>35.57</v>
       </c>
       <c r="X4">
         <v>216.91</v>
       </c>
       <c r="Y4">
-        <v>198.3961538461539</v>
+        <v>198.4</v>
       </c>
       <c r="Z4">
         <v>107.53</v>
@@ -997,7 +997,7 @@
         <v>28</v>
       </c>
       <c r="AC4">
-        <v>87.88571428571429</v>
+        <v>87.89</v>
       </c>
       <c r="AD4">
         <v>162.06</v>
@@ -1018,7 +1018,7 @@
         <v>0.2</v>
       </c>
       <c r="AJ4">
-        <v>941.8870588235294</v>
+        <v>941.89</v>
       </c>
       <c r="AK4">
         <v>7.45</v>
@@ -1027,7 +1027,7 @@
         <v>83.83</v>
       </c>
       <c r="AM4">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1053,7 +1053,7 @@
         <v>59.41</v>
       </c>
       <c r="H5">
-        <v>29.88642857142857</v>
+        <v>29.89</v>
       </c>
       <c r="I5">
         <v>64.45</v>
@@ -1092,19 +1092,19 @@
         <v>72.13</v>
       </c>
       <c r="U5">
-        <v>44.82833333333333</v>
+        <v>44.83</v>
       </c>
       <c r="V5">
-        <v>54.66545454545455</v>
+        <v>54.67</v>
       </c>
       <c r="W5">
-        <v>35.57285714285715</v>
+        <v>35.57</v>
       </c>
       <c r="X5">
         <v>200.97</v>
       </c>
       <c r="Y5">
-        <v>198.3961538461539</v>
+        <v>198.4</v>
       </c>
       <c r="Z5">
         <v>122.82</v>
@@ -1116,7 +1116,7 @@
         <v>57.45</v>
       </c>
       <c r="AC5">
-        <v>87.88571428571429</v>
+        <v>87.89</v>
       </c>
       <c r="AD5">
         <v>238.05</v>
@@ -1146,7 +1146,7 @@
         <v>72.13</v>
       </c>
       <c r="AM5">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1172,7 +1172,7 @@
         <v>75.26000000000001</v>
       </c>
       <c r="H6">
-        <v>29.88642857142857</v>
+        <v>29.89</v>
       </c>
       <c r="I6">
         <v>81.31</v>
@@ -1211,19 +1211,19 @@
         <v>83.36</v>
       </c>
       <c r="U6">
-        <v>44.82833333333333</v>
+        <v>44.83</v>
       </c>
       <c r="V6">
-        <v>54.66545454545455</v>
+        <v>54.67</v>
       </c>
       <c r="W6">
-        <v>35.57285714285715</v>
+        <v>35.57</v>
       </c>
       <c r="X6">
         <v>231.28</v>
       </c>
       <c r="Y6">
-        <v>198.3961538461539</v>
+        <v>198.4</v>
       </c>
       <c r="Z6">
         <v>128.73</v>
@@ -1235,7 +1235,7 @@
         <v>68.29000000000001</v>
       </c>
       <c r="AC6">
-        <v>87.88571428571429</v>
+        <v>87.89</v>
       </c>
       <c r="AD6">
         <v>319.93</v>
@@ -1265,7 +1265,7 @@
         <v>83.36</v>
       </c>
       <c r="AM6">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1291,7 +1291,7 @@
         <v>48.8</v>
       </c>
       <c r="H7">
-        <v>29.88642857142857</v>
+        <v>29.89</v>
       </c>
       <c r="I7">
         <v>53.97</v>
@@ -1330,19 +1330,19 @@
         <v>226.55</v>
       </c>
       <c r="U7">
-        <v>44.82833333333333</v>
+        <v>44.83</v>
       </c>
       <c r="V7">
-        <v>54.66545454545455</v>
+        <v>54.67</v>
       </c>
       <c r="W7">
-        <v>35.57285714285715</v>
+        <v>35.57</v>
       </c>
       <c r="X7">
         <v>366.76</v>
       </c>
       <c r="Y7">
-        <v>198.3961538461539</v>
+        <v>198.4</v>
       </c>
       <c r="Z7">
         <v>99.91</v>
@@ -1354,7 +1354,7 @@
         <v>64.72</v>
       </c>
       <c r="AC7">
-        <v>87.88571428571429</v>
+        <v>87.89</v>
       </c>
       <c r="AD7">
         <v>222.51</v>
@@ -1384,7 +1384,7 @@
         <v>226.55</v>
       </c>
       <c r="AM7">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1449,7 +1449,7 @@
         <v>179.07</v>
       </c>
       <c r="U8">
-        <v>44.82833333333333</v>
+        <v>44.83</v>
       </c>
       <c r="V8">
         <v>72.59999999999999</v>
@@ -1568,7 +1568,7 @@
         <v>366.32</v>
       </c>
       <c r="U9">
-        <v>44.82833333333333</v>
+        <v>44.83</v>
       </c>
       <c r="V9">
         <v>85.20999999999999</v>
@@ -1806,7 +1806,7 @@
         <v>649.24</v>
       </c>
       <c r="U11">
-        <v>44.82833333333333</v>
+        <v>44.83</v>
       </c>
       <c r="V11">
         <v>121.78</v>
@@ -2056,7 +2056,7 @@
         <v>891.6799999999999</v>
       </c>
       <c r="Y13">
-        <v>198.3961538461539</v>
+        <v>198.4</v>
       </c>
       <c r="Z13">
         <v>364.82</v>
@@ -2359,7 +2359,7 @@
         <v>1184.23</v>
       </c>
       <c r="G16">
-        <v>66.07857142857142</v>
+        <v>66.08</v>
       </c>
       <c r="H16">
         <v>29.46</v>
@@ -2392,7 +2392,7 @@
         <v>16.69</v>
       </c>
       <c r="R16">
-        <v>15.17736842105263</v>
+        <v>15.18</v>
       </c>
       <c r="S16">
         <v>154.8</v>
@@ -2478,7 +2478,7 @@
         <v>1211.57</v>
       </c>
       <c r="G17">
-        <v>66.07857142857142</v>
+        <v>66.08</v>
       </c>
       <c r="H17">
         <v>36.15</v>
@@ -2487,7 +2487,7 @@
         <v>140.66</v>
       </c>
       <c r="J17">
-        <v>114.318</v>
+        <v>114.32</v>
       </c>
       <c r="K17">
         <v>77.3</v>
@@ -2574,7 +2574,7 @@
         <v>366.33</v>
       </c>
       <c r="AM17">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -2597,7 +2597,7 @@
         <v>1393.04</v>
       </c>
       <c r="G18">
-        <v>66.07857142857142</v>
+        <v>66.08</v>
       </c>
       <c r="H18">
         <v>44.33</v>
@@ -2606,7 +2606,7 @@
         <v>130.86</v>
       </c>
       <c r="J18">
-        <v>114.318</v>
+        <v>114.32</v>
       </c>
       <c r="K18">
         <v>64.05</v>
@@ -2693,7 +2693,7 @@
         <v>366.33</v>
       </c>
       <c r="AM18">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -2716,7 +2716,7 @@
         <v>1588.92</v>
       </c>
       <c r="G19">
-        <v>66.07857142857142</v>
+        <v>66.08</v>
       </c>
       <c r="H19">
         <v>49.24</v>
@@ -2725,7 +2725,7 @@
         <v>129.21</v>
       </c>
       <c r="J19">
-        <v>114.318</v>
+        <v>114.32</v>
       </c>
       <c r="K19">
         <v>79.31</v>
@@ -2761,7 +2761,7 @@
         <v>38.47</v>
       </c>
       <c r="V19">
-        <v>54.66545454545455</v>
+        <v>54.67</v>
       </c>
       <c r="W19">
         <v>34.44</v>
@@ -2779,7 +2779,7 @@
         <v>143.49</v>
       </c>
       <c r="AB19">
-        <v>43.15647058823529</v>
+        <v>43.16</v>
       </c>
       <c r="AC19">
         <v>116.68</v>
@@ -2812,7 +2812,7 @@
         <v>420.4</v>
       </c>
       <c r="AM19">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -2835,7 +2835,7 @@
         <v>1220.94</v>
       </c>
       <c r="G20">
-        <v>66.07857142857142</v>
+        <v>66.08</v>
       </c>
       <c r="H20">
         <v>48.74</v>
@@ -2844,7 +2844,7 @@
         <v>106.47</v>
       </c>
       <c r="J20">
-        <v>114.318</v>
+        <v>114.32</v>
       </c>
       <c r="K20">
         <v>104.57</v>
@@ -2880,7 +2880,7 @@
         <v>48.41</v>
       </c>
       <c r="V20">
-        <v>54.66545454545455</v>
+        <v>54.67</v>
       </c>
       <c r="W20">
         <v>35.42</v>
@@ -2898,7 +2898,7 @@
         <v>262.08</v>
       </c>
       <c r="AB20">
-        <v>43.15647058823529</v>
+        <v>43.16</v>
       </c>
       <c r="AC20">
         <v>105.23</v>
@@ -2931,7 +2931,7 @@
         <v>440.44</v>
       </c>
       <c r="AM20">
-        <v>128.356</v>
+        <v>128.36</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -2954,7 +2954,7 @@
         <v>1468.2</v>
       </c>
       <c r="G21">
-        <v>66.07857142857142</v>
+        <v>66.08</v>
       </c>
       <c r="H21">
         <v>70.92</v>
@@ -2963,7 +2963,7 @@
         <v>96.04000000000001</v>
       </c>
       <c r="J21">
-        <v>114.318</v>
+        <v>114.32</v>
       </c>
       <c r="K21">
         <v>206.9</v>
@@ -2999,7 +2999,7 @@
         <v>39.7</v>
       </c>
       <c r="V21">
-        <v>54.66545454545455</v>
+        <v>54.67</v>
       </c>
       <c r="W21">
         <v>38.23</v>
@@ -3017,7 +3017,7 @@
         <v>85.59</v>
       </c>
       <c r="AB21">
-        <v>43.15647058823529</v>
+        <v>43.16</v>
       </c>
       <c r="AC21">
         <v>119.56</v>
